--- a/biology/Mycologie/Mucoraceae/Mucoraceae.xlsx
+++ b/biology/Mycologie/Mucoraceae/Mucoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mucoraceae ou Moisissures blanches[1], sont une famille de champignons de l'ordre des Mucorales (anciennement inclus dans les zygomycètes)[2]. Ils vivent en saprophyte, mais ils peuvent être quelques fois parasites de fruits ou de légumes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mucoraceae ou Moisissures blanches, sont une famille de champignons de l'ordre des Mucorales (anciennement inclus dans les zygomycètes). Ils vivent en saprophyte, mais ils peuvent être quelques fois parasites de fruits ou de légumes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs téléomorphes forment des zygospores. Leurs anamorphes présentent des sporocystes à columelle et produisant généralement de nombreuses spores.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (25 décembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (25 décembre 2021) :
 Actinomucor Schostak.
 Backusella Hesselt. &amp; J.J. Ellis
 Benjaminiella Arx
@@ -564,7 +580,7 @@
 Rhizopodopsis Boedijn
 Thamnidium Link
 Zygorhynchus Vuill.
-Selon NCBI  (25 décembre 2021)[4] :
+Selon NCBI  (25 décembre 2021) :
 Actinomucor Schostak., 1898
 Ambomucor R.Y. Zheng &amp; X.Y. Liu, 2014
 Amylomyces Calmette, 1892
